--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value384.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value384.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7813539224303622</v>
+        <v>2.071020364761353</v>
       </c>
       <c r="B1">
-        <v>1.219715923529506</v>
+        <v>3.357789516448975</v>
       </c>
       <c r="C1">
-        <v>1.709506266087684</v>
+        <v>2.835106611251831</v>
       </c>
       <c r="D1">
-        <v>2.052473168186538</v>
+        <v>2.12580132484436</v>
       </c>
       <c r="E1">
-        <v>2.38450100726746</v>
+        <v>1.246389150619507</v>
       </c>
     </row>
   </sheetData>
